--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_SIN_DIFF.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_SIN_DIFF.xlsx
@@ -453,25 +453,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>9.117623949838471</v>
+        <v>7.745759138573715</v>
       </c>
       <c r="C2">
-        <v>1342.932740402371</v>
+        <v>1690.630179487911</v>
       </c>
       <c r="D2">
-        <v>137912.6011245579</v>
+        <v>224661.9279532027</v>
       </c>
       <c r="E2">
-        <v>9035706.921899043</v>
+        <v>15706235.67871721</v>
       </c>
       <c r="F2">
-        <v>488989362.671398</v>
+        <v>1064189171.088317</v>
       </c>
       <c r="G2">
-        <v>569953354106.4709</v>
+        <v>1393436492059.6</v>
       </c>
       <c r="H2">
-        <v>9904628464294660</v>
+        <v>3.408420886080534E+16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -479,25 +479,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>3.19246047265176</v>
+        <v>3.029404614813376</v>
       </c>
       <c r="C3">
-        <v>406.9214421629566</v>
+        <v>493.7056657904255</v>
       </c>
       <c r="D3">
-        <v>33668.14556467994</v>
+        <v>51365.92510653412</v>
       </c>
       <c r="E3">
-        <v>2412818.707449072</v>
+        <v>3946194.012936089</v>
       </c>
       <c r="F3">
-        <v>146643664.8951425</v>
+        <v>301596277.797565</v>
       </c>
       <c r="G3">
-        <v>209160763224.9806</v>
+        <v>491505184098.5649</v>
       </c>
       <c r="H3">
-        <v>4552602172245834</v>
+        <v>1.516427993093481E+16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -505,25 +505,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>10.2578645347</v>
+        <v>8.659901630721464</v>
       </c>
       <c r="C4">
-        <v>1457.77046902069</v>
+        <v>1842.921612235855</v>
       </c>
       <c r="D4">
-        <v>145552.9905381687</v>
+        <v>239041.5701604958</v>
       </c>
       <c r="E4">
-        <v>9385776.529811393</v>
+        <v>16400704.41870035</v>
       </c>
       <c r="F4">
-        <v>503731318.2365109</v>
+        <v>1100385677.789406</v>
       </c>
       <c r="G4">
-        <v>581310590091.3236</v>
+        <v>1424477932023.208</v>
       </c>
       <c r="H4">
-        <v>1.003740711751901E+16</v>
+        <v>3.455941848899456E+16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -531,25 +531,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3.48234531454113</v>
+        <v>2.65747106496605</v>
       </c>
       <c r="C5">
-        <v>947.7088126092731</v>
+        <v>1032.364311169534</v>
       </c>
       <c r="D5">
-        <v>117819.0353768613</v>
+        <v>173959.1629817165</v>
       </c>
       <c r="E5">
-        <v>8214661.477793201</v>
+        <v>14005904.0100794</v>
       </c>
       <c r="F5">
-        <v>456575438.076964</v>
+        <v>992793839.8827198</v>
       </c>
       <c r="G5">
-        <v>553521586147.2854</v>
+        <v>1345866062803.361</v>
       </c>
       <c r="H5">
-        <v>9967693185194562</v>
+        <v>3.397062752496482E+16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -557,25 +557,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>6.471833426941836</v>
+        <v>6.079569206452023</v>
       </c>
       <c r="C6">
-        <v>436.1888451682984</v>
+        <v>623.1497992270617</v>
       </c>
       <c r="D6">
-        <v>36197.52136274242</v>
+        <v>64392.06810269794</v>
       </c>
       <c r="E6">
-        <v>2424090.565578412</v>
+        <v>4030683.788336271</v>
       </c>
       <c r="F6">
-        <v>133870496.2555529</v>
+        <v>283645076.2654231</v>
       </c>
       <c r="G6">
-        <v>186252728113.4576</v>
+        <v>433742937238.8953</v>
       </c>
       <c r="H6">
-        <v>4349833098661902</v>
+        <v>1.4192001549645E+16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -583,25 +583,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1.081141225107022</v>
+        <v>1.134104262201696</v>
       </c>
       <c r="C7">
-        <v>24.86977769560577</v>
+        <v>58.16326180633573</v>
       </c>
       <c r="D7">
-        <v>3143.210748781849</v>
+        <v>4680.645402168596</v>
       </c>
       <c r="E7">
-        <v>249326.4890215459</v>
+        <v>401817.5202235829</v>
       </c>
       <c r="F7">
-        <v>15702614.85259002</v>
+        <v>31959278.30984279</v>
       </c>
       <c r="G7">
-        <v>23330622089.74633</v>
+        <v>53727782889.18716</v>
       </c>
       <c r="H7">
-        <v>532380178744188.2</v>
+        <v>1738799778604794</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -609,25 +609,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>3.21736124340796</v>
+        <v>4.015035218607613</v>
       </c>
       <c r="C8">
-        <v>163.3248158965813</v>
+        <v>218.4341029728908</v>
       </c>
       <c r="D8">
-        <v>20269.10249245022</v>
+        <v>30721.6938354555</v>
       </c>
       <c r="E8">
-        <v>1587754.744707915</v>
+        <v>2576969.00124671</v>
       </c>
       <c r="F8">
-        <v>98520990.56910226</v>
+        <v>202282824.2453786</v>
       </c>
       <c r="G8">
-        <v>143762526204.5353</v>
+        <v>334035903055.7594</v>
       </c>
       <c r="H8">
-        <v>3249000750994496</v>
+        <v>1.065821675356784E+16</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -635,25 +635,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>2.954518968926959</v>
+        <v>2.691116401345114</v>
       </c>
       <c r="C9">
-        <v>503.3076659525306</v>
+        <v>606.379519325962</v>
       </c>
       <c r="D9">
-        <v>61786.40965583974</v>
+        <v>94684.81007314504</v>
       </c>
       <c r="E9">
-        <v>4567374.042539071</v>
+        <v>7647897.093405686</v>
       </c>
       <c r="F9">
-        <v>273469425.5664167</v>
+        <v>573502194.401401</v>
       </c>
       <c r="G9">
-        <v>366474038188.5247</v>
+        <v>869544076802.2577</v>
       </c>
       <c r="H9">
-        <v>7318307135218793</v>
+        <v>2.470795691006535E+16</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -661,25 +661,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5722625351866107</v>
+        <v>0.5495072954475011</v>
       </c>
       <c r="C10">
-        <v>28.85243480159394</v>
+        <v>28.8466065137616</v>
       </c>
       <c r="D10">
-        <v>27.28425344108388</v>
+        <v>27.25984047594418</v>
       </c>
       <c r="E10">
-        <v>27.0638231630112</v>
+        <v>27.04997347839618</v>
       </c>
       <c r="F10">
-        <v>129.6664054149905</v>
+        <v>34.51632402078002</v>
       </c>
       <c r="G10">
-        <v>405806.5407525984</v>
+        <v>66863.28710318518</v>
       </c>
       <c r="H10">
-        <v>13854486704.42018</v>
+        <v>1890293719.477777</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_SIN_DIFF.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_SIN_DIFF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>d=1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -419,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,10 +450,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>7.745759138573715</v>
@@ -468,15 +474,18 @@
         <v>1064189171.088317</v>
       </c>
       <c r="G2">
+        <v>43844648418.54645</v>
+      </c>
+      <c r="H2">
         <v>1393436492059.6</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3.408420886080534E+16</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>3.029404614813376</v>
@@ -494,15 +503,18 @@
         <v>301596277.797565</v>
       </c>
       <c r="G3">
+        <v>13915906225.55587</v>
+      </c>
+      <c r="H3">
         <v>491505184098.5649</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.516427993093481E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>8.659901630721464</v>
@@ -520,15 +532,18 @@
         <v>1100385677.789406</v>
       </c>
       <c r="G4">
+        <v>45017629050.94464</v>
+      </c>
+      <c r="H4">
         <v>1424477932023.208</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3.455941848899456E+16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2.65747106496605</v>
@@ -546,15 +561,18 @@
         <v>992793839.8827198</v>
       </c>
       <c r="G5">
+        <v>42373806532.45045</v>
+      </c>
+      <c r="H5">
         <v>1345866062803.361</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3.397062752496482E+16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>6.079569206452023</v>
@@ -572,15 +590,18 @@
         <v>283645076.2654231</v>
       </c>
       <c r="G6">
+        <v>12631326692.04545</v>
+      </c>
+      <c r="H6">
         <v>433742937238.8953</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.4192001549645E+16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1.134104262201696</v>
@@ -598,15 +619,18 @@
         <v>31959278.30984279</v>
       </c>
       <c r="G7">
+        <v>1496125120.768589</v>
+      </c>
+      <c r="H7">
         <v>53727782889.18716</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1738799778604794</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>4.015035218607613</v>
@@ -624,15 +648,18 @@
         <v>202282824.2453786</v>
       </c>
       <c r="G8">
+        <v>9478119032.684235</v>
+      </c>
+      <c r="H8">
         <v>334035903055.7594</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.065821675356784E+16</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2.691116401345114</v>
@@ -650,15 +677,18 @@
         <v>573502194.401401</v>
       </c>
       <c r="G9">
+        <v>25640696318.56057</v>
+      </c>
+      <c r="H9">
         <v>869544076802.2577</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.470795691006535E+16</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>0.5495072954475011</v>
@@ -676,9 +706,12 @@
         <v>34.51632402078002</v>
       </c>
       <c r="G10">
+        <v>1378.410655219358</v>
+      </c>
+      <c r="H10">
         <v>66863.28710318518</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1890293719.477777</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_SIN_DIFF.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_SIN_DIFF.xlsx
@@ -474,13 +474,13 @@
         <v>1064189171.088317</v>
       </c>
       <c r="G2">
-        <v>43844648418.54645</v>
+        <v>37785982911.24337</v>
       </c>
       <c r="H2">
-        <v>1393436492059.6</v>
+        <v>1675881703641.516</v>
       </c>
       <c r="I2">
-        <v>3.408420886080534E+16</v>
+        <v>2.87544009628349E+16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -488,28 +488,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>3.029404614813376</v>
+        <v>3.045061224774464</v>
       </c>
       <c r="C3">
-        <v>493.7056657904255</v>
+        <v>496.1349728514716</v>
       </c>
       <c r="D3">
-        <v>51365.92510653412</v>
+        <v>51463.44232116333</v>
       </c>
       <c r="E3">
-        <v>3946194.012936089</v>
+        <v>3949555.41930737</v>
       </c>
       <c r="F3">
-        <v>301596277.797565</v>
+        <v>302029135.8022056</v>
       </c>
       <c r="G3">
-        <v>13915906225.55587</v>
+        <v>12023767741.14577</v>
       </c>
       <c r="H3">
-        <v>491505184098.5649</v>
+        <v>592496493073.3569</v>
       </c>
       <c r="I3">
-        <v>1.516427993093481E+16</v>
+        <v>1.273258134267924E+16</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -517,28 +517,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>8.659901630721464</v>
+        <v>8.663526526158217</v>
       </c>
       <c r="C4">
-        <v>1842.921612235855</v>
+        <v>1843.119817584459</v>
       </c>
       <c r="D4">
-        <v>239041.5701604958</v>
+        <v>239029.2143902132</v>
       </c>
       <c r="E4">
-        <v>16400704.41870035</v>
+        <v>16402802.7359937</v>
       </c>
       <c r="F4">
-        <v>1100385677.789406</v>
+        <v>1100370138.151046</v>
       </c>
       <c r="G4">
-        <v>45017629050.94464</v>
+        <v>38817825716.94899</v>
       </c>
       <c r="H4">
-        <v>1424477932023.208</v>
+        <v>1712728393786.48</v>
       </c>
       <c r="I4">
-        <v>3.455941848899456E+16</v>
+        <v>2.915096885790334E+16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -561,13 +561,13 @@
         <v>992793839.8827198</v>
       </c>
       <c r="G5">
-        <v>42373806532.45045</v>
+        <v>36559212319.26645</v>
       </c>
       <c r="H5">
-        <v>1345866062803.361</v>
+        <v>1620746478918.832</v>
       </c>
       <c r="I5">
-        <v>3.397062752496482E+16</v>
+        <v>2.870218312957031E+16</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -575,28 +575,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>6.079569206452023</v>
+        <v>5.369242002566493</v>
       </c>
       <c r="C6">
-        <v>623.1497992270617</v>
+        <v>887.1610385335186</v>
       </c>
       <c r="D6">
-        <v>64392.06810269794</v>
+        <v>76725.4774647124</v>
       </c>
       <c r="E6">
-        <v>4030683.788336271</v>
+        <v>4876168.263484871</v>
       </c>
       <c r="F6">
-        <v>283645076.2654231</v>
+        <v>373799034.0554756</v>
       </c>
       <c r="G6">
-        <v>12631326692.04545</v>
+        <v>13455285178.20615</v>
       </c>
       <c r="H6">
-        <v>433742937238.8953</v>
+        <v>654006570286.0819</v>
       </c>
       <c r="I6">
-        <v>1.4192001549645E+16</v>
+        <v>1.083940637538422E+16</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -619,13 +619,13 @@
         <v>31959278.30984279</v>
       </c>
       <c r="G7">
-        <v>1496125120.768589</v>
+        <v>1287459788.280791</v>
       </c>
       <c r="H7">
-        <v>53727782889.18716</v>
+        <v>64380602828.17851</v>
       </c>
       <c r="I7">
-        <v>1738799778604794</v>
+        <v>1476931647182352</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -648,13 +648,13 @@
         <v>202282824.2453786</v>
       </c>
       <c r="G8">
-        <v>9478119032.684235</v>
+        <v>8148610972.51496</v>
       </c>
       <c r="H8">
-        <v>334035903055.7594</v>
+        <v>405391373034.7842</v>
       </c>
       <c r="I8">
-        <v>1.065821675356784E+16</v>
+        <v>8995373167014003</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -662,28 +662,28 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>2.691116401345114</v>
+        <v>2.701955361016653</v>
       </c>
       <c r="C9">
-        <v>606.379519325962</v>
+        <v>607.6788956355718</v>
       </c>
       <c r="D9">
-        <v>94684.81007314504</v>
+        <v>94891.83174998802</v>
       </c>
       <c r="E9">
-        <v>7647897.093405686</v>
+        <v>7650016.09706249</v>
       </c>
       <c r="F9">
-        <v>573502194.401401</v>
+        <v>574225765.8906945</v>
       </c>
       <c r="G9">
-        <v>25640696318.56057</v>
+        <v>22120957776.42364</v>
       </c>
       <c r="H9">
-        <v>869544076802.2577</v>
+        <v>1052859501170.646</v>
       </c>
       <c r="I9">
-        <v>2.470795691006535E+16</v>
+        <v>2.079498682235909E+16</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -706,13 +706,13 @@
         <v>34.51632402078002</v>
       </c>
       <c r="G10">
-        <v>1378.410655219358</v>
+        <v>1400.979036837564</v>
       </c>
       <c r="H10">
-        <v>66863.28710318518</v>
+        <v>97372.7654354666</v>
       </c>
       <c r="I10">
-        <v>1890293719.477777</v>
+        <v>1502699451.718121</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_SIN_DIFF.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_1_tabla_ecrps_SIN_DIFF.xlsx
@@ -633,28 +633,28 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>4.015035218607613</v>
+        <v>1.136768169855944</v>
       </c>
       <c r="C8">
-        <v>218.4341029728908</v>
+        <v>58.13946918268717</v>
       </c>
       <c r="D8">
-        <v>30721.6938354555</v>
+        <v>4687.969884107692</v>
       </c>
       <c r="E8">
-        <v>2576969.00124671</v>
+        <v>400134.7069724926</v>
       </c>
       <c r="F8">
-        <v>202282824.2453786</v>
+        <v>31383316.41009646</v>
       </c>
       <c r="G8">
-        <v>8148610972.51496</v>
+        <v>1265644238.911851</v>
       </c>
       <c r="H8">
-        <v>405391373034.7842</v>
+        <v>62460288396.99023</v>
       </c>
       <c r="I8">
-        <v>8995373167014003</v>
+        <v>1436397544180646</v>
       </c>
     </row>
     <row r="9" spans="1:9">
